--- a/results/GALIH YOHANES.xlsx
+++ b/results/GALIH YOHANES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>INCENTIVE PRODUCT FOKUS</t>
   </si>
@@ -46,7 +46,7 @@
     <t>BIAYA</t>
   </si>
   <si>
-    <t>6.8%</t>
+    <t>8.11%</t>
   </si>
   <si>
     <t>SALES NON PANEL / TENDER</t>
@@ -67,79 +67,76 @@
     <t>SALES</t>
   </si>
   <si>
+    <t>MUTIARA (KOTA BUMI) AP</t>
+  </si>
+  <si>
+    <t>D-VIT SYRUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BUSMIN SIRUP</t>
+  </si>
+  <si>
+    <t>ESTIN TABLET</t>
+  </si>
+  <si>
+    <t>BUSMIN</t>
+  </si>
+  <si>
+    <t>AN- NUR 2 AP</t>
+  </si>
+  <si>
+    <t>NAHASIDA AP</t>
+  </si>
+  <si>
+    <t>VOMISTOP SUSPENSI</t>
+  </si>
+  <si>
+    <t>BAHARUDDIN HI AP</t>
+  </si>
+  <si>
+    <t>CALNIC 100 ML SUSPENSI</t>
+  </si>
+  <si>
+    <t>CALNIC 100 ML PLUS SUSPENSI</t>
+  </si>
+  <si>
+    <t>RUMAH SAKIT MEDIKA INSANI</t>
+  </si>
+  <si>
+    <t>GASTROLAN 30 MG KAPSUL</t>
+  </si>
+  <si>
+    <t>VOMISTOP FLASH TABLET</t>
+  </si>
+  <si>
     <t>RS HANDAYANI</t>
   </si>
   <si>
-    <t>CALNIC 100 ML PLUS SUSPENSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>CALNIC 30 PLUS KAPLET</t>
   </si>
   <si>
     <t>AS-SYIFA AP</t>
   </si>
   <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SALES PANEL / TENDER</t>
+  </si>
+  <si>
     <t>APT POLYGON FARMA</t>
   </si>
   <si>
     <t>CALNIC 30 KAPLET</t>
   </si>
   <si>
-    <t>BUSMIN</t>
-  </si>
-  <si>
     <t>ZEMINDO SYRUP</t>
   </si>
   <si>
     <t>HI-SQUA</t>
-  </si>
-  <si>
-    <t>RUMAH SAKIT MEDIKA INSANI</t>
-  </si>
-  <si>
-    <t>GASTROLAN 30 MG KAPSUL</t>
-  </si>
-  <si>
-    <t>VOMISTOP FLASH TABLET</t>
-  </si>
-  <si>
-    <t>AN- NUR 2 AP</t>
-  </si>
-  <si>
-    <t>ESTIN TABLET</t>
-  </si>
-  <si>
-    <t>NAHASIDA AP</t>
-  </si>
-  <si>
-    <t>VOMISTOP SUSPENSI</t>
-  </si>
-  <si>
-    <t>MUTIARA (KOTA BUMI) AP</t>
-  </si>
-  <si>
-    <t>D-VIT SYRUP</t>
-  </si>
-  <si>
-    <t>BUSMIN SIRUP</t>
-  </si>
-  <si>
-    <t>BAHARUDDIN HI AP</t>
-  </si>
-  <si>
-    <t>CALNIC 100 ML SUSPENSI</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>SALES PANEL / TENDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APT POLYGON FARMA </t>
   </si>
   <si>
     <t>APT BIMA</t>
@@ -842,13 +839,13 @@
         <v>18</v>
       </c>
       <c r="F12" s="11">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="G12" s="11">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H12" s="11">
-        <v>720000</v>
+        <v>90000</v>
       </c>
       <c r="I12" s="10"/>
     </row>
@@ -861,13 +858,13 @@
         <v>20</v>
       </c>
       <c r="F13" s="12">
-        <v>138000</v>
+        <v>75000</v>
       </c>
       <c r="G13" s="12">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="H13" s="12">
-        <v>828000</v>
+        <v>-150000</v>
       </c>
       <c r="I13" s="10"/>
     </row>
@@ -877,35 +874,35 @@
         <v>19</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="11">
-        <v>138000</v>
+        <v>84000</v>
       </c>
       <c r="G14" s="11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H14" s="11">
-        <v>1380000</v>
+        <v>252000</v>
       </c>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="8"/>
       <c r="D15" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F15" s="12">
-        <v>60000</v>
+        <v>165000</v>
       </c>
       <c r="G15" s="12">
         <v>2</v>
       </c>
       <c r="H15" s="12">
-        <v>120000</v>
+        <v>330000</v>
       </c>
       <c r="I15" s="10"/>
     </row>
@@ -918,32 +915,32 @@
         <v>18</v>
       </c>
       <c r="F16" s="11">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="G16" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="11">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="8"/>
       <c r="D17" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F17" s="12">
-        <v>112500</v>
+        <v>84000</v>
       </c>
       <c r="G17" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H17" s="12">
-        <v>562500</v>
+        <v>168000</v>
       </c>
       <c r="I17" s="10"/>
     </row>
@@ -953,73 +950,73 @@
         <v>19</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F18" s="11">
-        <v>165000</v>
+        <v>84000</v>
       </c>
       <c r="G18" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="11">
-        <v>330000</v>
+        <v>84000</v>
       </c>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="8"/>
       <c r="D19" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="12">
-        <v>37500</v>
+        <v>41500</v>
       </c>
       <c r="G19" s="12">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H19" s="12">
-        <v>187500</v>
+        <v>996000</v>
       </c>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F20" s="11">
+        <v>55000</v>
+      </c>
+      <c r="G20" s="11">
+        <v>3</v>
+      </c>
+      <c r="H20" s="11">
         <v>165000</v>
-      </c>
-      <c r="G20" s="11">
-        <v>5</v>
-      </c>
-      <c r="H20" s="11">
-        <v>825000</v>
       </c>
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="3:9">
       <c r="C21" s="8"/>
       <c r="D21" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F21" s="12">
-        <v>165000</v>
+        <v>60000</v>
       </c>
       <c r="G21" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H21" s="12">
-        <v>825000</v>
+        <v>180000</v>
       </c>
       <c r="I21" s="10"/>
     </row>
@@ -1029,35 +1026,35 @@
         <v>19</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F22" s="11">
-        <v>165000</v>
+        <v>30000</v>
       </c>
       <c r="G22" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H22" s="11">
-        <v>825000</v>
+        <v>90000</v>
       </c>
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="3:9">
       <c r="C23" s="8"/>
       <c r="D23" s="12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F23" s="12">
-        <v>280000</v>
+        <v>165000</v>
       </c>
       <c r="G23" s="12">
         <v>5</v>
       </c>
       <c r="H23" s="12">
-        <v>1400000</v>
+        <v>825000</v>
       </c>
       <c r="I23" s="10"/>
     </row>
@@ -1067,16 +1064,16 @@
         <v>19</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F24" s="11">
-        <v>117000</v>
+        <v>165000</v>
       </c>
       <c r="G24" s="11">
         <v>5</v>
       </c>
       <c r="H24" s="11">
-        <v>585000</v>
+        <v>825000</v>
       </c>
       <c r="I24" s="10"/>
     </row>
@@ -1086,35 +1083,35 @@
         <v>19</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F25" s="12">
-        <v>165000</v>
+        <v>280000</v>
       </c>
       <c r="G25" s="12">
         <v>5</v>
       </c>
       <c r="H25" s="12">
-        <v>825000</v>
+        <v>1400000</v>
       </c>
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="3:9">
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>31</v>
       </c>
       <c r="F26" s="11">
-        <v>84000</v>
+        <v>117000</v>
       </c>
       <c r="G26" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H26" s="11">
-        <v>168000</v>
+        <v>585000</v>
       </c>
       <c r="I26" s="10"/>
     </row>
@@ -1124,16 +1121,16 @@
         <v>19</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F27" s="12">
-        <v>84000</v>
+        <v>165000</v>
       </c>
       <c r="G27" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H27" s="12">
-        <v>84000</v>
+        <v>825000</v>
       </c>
       <c r="I27" s="10"/>
     </row>
@@ -1143,35 +1140,35 @@
         <v>32</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F28" s="11">
-        <v>41500</v>
+        <v>60000</v>
       </c>
       <c r="G28" s="11">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H28" s="11">
-        <v>996000</v>
+        <v>720000</v>
       </c>
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="3:9">
       <c r="C29" s="8"/>
       <c r="D29" s="12" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F29" s="12">
-        <v>30000</v>
+        <v>138000</v>
       </c>
       <c r="G29" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H29" s="12">
-        <v>90000</v>
+        <v>828000</v>
       </c>
       <c r="I29" s="10"/>
     </row>
@@ -1181,35 +1178,35 @@
         <v>19</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F30" s="11">
-        <v>75000</v>
+        <v>138000</v>
       </c>
       <c r="G30" s="11">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="H30" s="11">
-        <v>-150000</v>
+        <v>1380000</v>
       </c>
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="3:9">
       <c r="C31" s="8"/>
       <c r="D31" s="12" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F31" s="12">
-        <v>84000</v>
+        <v>60000</v>
       </c>
       <c r="G31" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" s="12">
-        <v>252000</v>
+        <v>120000</v>
       </c>
       <c r="I31" s="10"/>
     </row>
@@ -1219,162 +1216,153 @@
         <v>19</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F32" s="11">
-        <v>165000</v>
+        <v>60000</v>
       </c>
       <c r="G32" s="11">
         <v>2</v>
       </c>
       <c r="H32" s="11">
-        <v>330000</v>
+        <v>120000</v>
       </c>
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="3:9">
       <c r="C33" s="8"/>
-      <c r="D33" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="12">
-        <v>30000</v>
-      </c>
-      <c r="G33" s="12">
-        <v>3</v>
-      </c>
-      <c r="H33" s="12">
-        <v>90000</v>
-      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="3:9">
       <c r="C34" s="8"/>
-      <c r="D34" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="11">
-        <v>55000</v>
-      </c>
-      <c r="G34" s="11">
-        <v>3</v>
-      </c>
-      <c r="H34" s="11">
-        <v>165000</v>
+      <c r="D34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4">
+        <v>9923000</v>
       </c>
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="3:9">
-      <c r="C35" s="8"/>
-      <c r="D35" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="12">
-        <v>60000</v>
-      </c>
-      <c r="G35" s="12">
-        <v>3</v>
-      </c>
-      <c r="H35" s="12">
-        <v>180000</v>
-      </c>
-      <c r="I35" s="10"/>
-    </row>
-    <row r="36" spans="3:9">
-      <c r="C36" s="8"/>
-      <c r="D36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="11">
-        <v>30000</v>
-      </c>
-      <c r="G36" s="11">
-        <v>3</v>
-      </c>
-      <c r="H36" s="11">
-        <v>90000</v>
-      </c>
-      <c r="I36" s="10"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="37" spans="3:9">
-      <c r="C37" s="8"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="10"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="3:9">
       <c r="C38" s="8"/>
-      <c r="D38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4">
-        <v>11828000</v>
-      </c>
+      <c r="D38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
       <c r="I38" s="10"/>
     </row>
     <row r="39" spans="3:9">
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="16"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="C40" s="8"/>
+      <c r="D40" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="11">
+        <v>112500</v>
+      </c>
+      <c r="G40" s="11">
+        <v>5</v>
+      </c>
+      <c r="H40" s="11">
+        <v>562500</v>
+      </c>
+      <c r="I40" s="10"/>
     </row>
     <row r="41" spans="3:9">
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="E41" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="12">
+        <v>165000</v>
+      </c>
+      <c r="G41" s="12">
+        <v>2</v>
+      </c>
+      <c r="H41" s="12">
+        <v>330000</v>
+      </c>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="3:9">
       <c r="C42" s="8"/>
-      <c r="D42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="E42" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="11">
+        <v>37500</v>
+      </c>
+      <c r="G42" s="11">
+        <v>5</v>
+      </c>
+      <c r="H42" s="11">
+        <v>187500</v>
+      </c>
       <c r="I42" s="10"/>
     </row>
     <row r="43" spans="3:9">
       <c r="C43" s="8"/>
-      <c r="D43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>16</v>
+      <c r="E43" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="12">
+        <v>165000</v>
+      </c>
+      <c r="G43" s="12">
+        <v>5</v>
+      </c>
+      <c r="H43" s="12">
+        <v>825000</v>
       </c>
       <c r="I43" s="10"/>
     </row>
@@ -1390,12 +1378,14 @@
     <row r="45" spans="3:9">
       <c r="C45" s="8"/>
       <c r="D45" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="H45" s="4">
+        <v>1905000</v>
+      </c>
       <c r="I45" s="10"/>
     </row>
     <row r="46" spans="3:9">
@@ -1409,36 +1399,36 @@
     </row>
     <row r="48" spans="3:9">
       <c r="F48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="3">
-        <v>6828000</v>
+        <v>4923000</v>
       </c>
     </row>
     <row r="49" spans="3:9">
       <c r="F49" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="3">
-        <v>512100</v>
+        <v>369225</v>
       </c>
     </row>
     <row r="52" spans="3:9">
       <c r="C52" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="E53" s="18" t="s">
         <v>47</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>48</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -1447,13 +1437,13 @@
     </row>
     <row r="54" spans="3:9">
       <c r="C54" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
@@ -1462,13 +1452,13 @@
     </row>
     <row r="55" spans="3:9">
       <c r="C55" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="E55" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
@@ -1477,13 +1467,13 @@
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
@@ -1492,13 +1482,13 @@
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
@@ -1507,13 +1497,13 @@
     </row>
     <row r="58" spans="3:9">
       <c r="C58" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
@@ -1522,13 +1512,13 @@
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
@@ -1537,13 +1527,13 @@
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="E60" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>64</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
@@ -1552,13 +1542,13 @@
     </row>
     <row r="61" spans="3:9">
       <c r="C61" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
@@ -1569,7 +1559,7 @@
   <mergeCells count="14">
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D38:H38"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="E53:I53"/>
